--- a/data/pca/factorExposure/factorExposure_2011-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007349632128461614</v>
+        <v>0.01261006544037754</v>
       </c>
       <c r="C2">
-        <v>0.004639195832564806</v>
+        <v>-0.001398066735932237</v>
       </c>
       <c r="D2">
-        <v>-0.03093889898582257</v>
+        <v>-0.004077358578633167</v>
       </c>
       <c r="E2">
-        <v>0.003249574250508578</v>
+        <v>-0.01422846852434516</v>
       </c>
       <c r="F2">
-        <v>-0.003777992778833961</v>
+        <v>-0.02138591812233976</v>
       </c>
       <c r="G2">
-        <v>-0.01997729322072194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.008255073332462871</v>
+      </c>
+      <c r="H2">
+        <v>0.007257115161878773</v>
+      </c>
+      <c r="I2">
+        <v>-0.02436365962742818</v>
+      </c>
+      <c r="J2">
+        <v>0.06156591707580934</v>
+      </c>
+      <c r="K2">
+        <v>0.002907802727098968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1054106216781838</v>
+        <v>0.116732969600907</v>
       </c>
       <c r="C4">
-        <v>0.02573435575701935</v>
+        <v>0.05607399125620573</v>
       </c>
       <c r="D4">
-        <v>-0.04496183131875259</v>
+        <v>0.001405027708033722</v>
       </c>
       <c r="E4">
-        <v>-0.05696891663571427</v>
+        <v>-0.007676586823563214</v>
       </c>
       <c r="F4">
-        <v>-0.03838744562998589</v>
+        <v>-0.01820213994035803</v>
       </c>
       <c r="G4">
-        <v>-0.02590994306793736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.07127249093899421</v>
+      </c>
+      <c r="H4">
+        <v>0.1374900192252357</v>
+      </c>
+      <c r="I4">
+        <v>-0.02943819319161551</v>
+      </c>
+      <c r="J4">
+        <v>-0.04650885033150134</v>
+      </c>
+      <c r="K4">
+        <v>0.02311575282344306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1279136345024389</v>
+        <v>0.122385526939982</v>
       </c>
       <c r="C6">
-        <v>0.02710231967243653</v>
+        <v>0.007506170163940474</v>
       </c>
       <c r="D6">
-        <v>-0.02742605076955453</v>
+        <v>-0.006398704661186883</v>
       </c>
       <c r="E6">
-        <v>0.01029562370055568</v>
+        <v>0.02769612235465093</v>
       </c>
       <c r="F6">
-        <v>0.1437555187515616</v>
+        <v>-0.005636521025944303</v>
       </c>
       <c r="G6">
-        <v>0.1373002838134829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05922159361406849</v>
+      </c>
+      <c r="H6">
+        <v>0.03114427873964587</v>
+      </c>
+      <c r="I6">
+        <v>0.1483321065979306</v>
+      </c>
+      <c r="J6">
+        <v>-0.3694440664528059</v>
+      </c>
+      <c r="K6">
+        <v>-0.2207820076644841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0914216400214761</v>
+        <v>0.07993455482877701</v>
       </c>
       <c r="C7">
-        <v>0.03657207556428049</v>
+        <v>0.06111388283990134</v>
       </c>
       <c r="D7">
-        <v>-0.03904617218639213</v>
+        <v>-0.03093209365215726</v>
       </c>
       <c r="E7">
-        <v>-0.02384331631741624</v>
+        <v>-0.01988830236267412</v>
       </c>
       <c r="F7">
-        <v>0.0228770142559316</v>
+        <v>-0.03976862067001083</v>
       </c>
       <c r="G7">
-        <v>-0.02568312735560239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02457496563328944</v>
+      </c>
+      <c r="H7">
+        <v>0.04117517495305634</v>
+      </c>
+      <c r="I7">
+        <v>0.01583661249475296</v>
+      </c>
+      <c r="J7">
+        <v>0.01207519146755032</v>
+      </c>
+      <c r="K7">
+        <v>0.09199279686453504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04286034445327613</v>
+        <v>0.05199456814752247</v>
       </c>
       <c r="C8">
-        <v>-0.02703413507101572</v>
+        <v>0.01018195194369312</v>
       </c>
       <c r="D8">
-        <v>-0.08356713258165079</v>
+        <v>-0.01412101825626793</v>
       </c>
       <c r="E8">
-        <v>-0.0874099311219307</v>
+        <v>-0.006731395678248437</v>
       </c>
       <c r="F8">
-        <v>-0.03003801644237772</v>
+        <v>-0.009299009900127931</v>
       </c>
       <c r="G8">
-        <v>-0.1260996212191839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.1007045597086478</v>
+      </c>
+      <c r="H8">
+        <v>0.1054464654627101</v>
+      </c>
+      <c r="I8">
+        <v>-0.01480558934179177</v>
+      </c>
+      <c r="J8">
+        <v>-0.0378056759146788</v>
+      </c>
+      <c r="K8">
+        <v>0.01723045457213139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0948987816877425</v>
+        <v>0.08909767981265218</v>
       </c>
       <c r="C9">
-        <v>0.03629284433065337</v>
+        <v>0.05423678203779631</v>
       </c>
       <c r="D9">
-        <v>-0.03643011598264764</v>
+        <v>-0.007426585315342715</v>
       </c>
       <c r="E9">
-        <v>-0.04568431069866669</v>
+        <v>-0.01609469708631746</v>
       </c>
       <c r="F9">
-        <v>-0.03028562681672162</v>
+        <v>-0.01070995720985597</v>
       </c>
       <c r="G9">
-        <v>-0.06560476625354288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06618789167777331</v>
+      </c>
+      <c r="H9">
+        <v>0.1159817552998613</v>
+      </c>
+      <c r="I9">
+        <v>0.001529679516544646</v>
+      </c>
+      <c r="J9">
+        <v>-0.01287281503047528</v>
+      </c>
+      <c r="K9">
+        <v>-0.0002219900018128186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03801743870668665</v>
+        <v>0.08877755408535708</v>
       </c>
       <c r="C10">
-        <v>-0.1615221584413912</v>
+        <v>-0.1747772841795511</v>
       </c>
       <c r="D10">
-        <v>-0.08897201753010965</v>
+        <v>0.02947768782191306</v>
       </c>
       <c r="E10">
-        <v>-0.02353439969555548</v>
+        <v>-0.03135952890165314</v>
       </c>
       <c r="F10">
-        <v>0.02805199434069495</v>
+        <v>-0.05587506806616706</v>
       </c>
       <c r="G10">
-        <v>-0.003137921596951296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.003457805008639612</v>
+      </c>
+      <c r="H10">
+        <v>-0.003484075581210512</v>
+      </c>
+      <c r="I10">
+        <v>0.007934782190978732</v>
+      </c>
+      <c r="J10">
+        <v>-0.036147737386927</v>
+      </c>
+      <c r="K10">
+        <v>0.03181716253641747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07757461414395513</v>
+        <v>0.07954725667732099</v>
       </c>
       <c r="C11">
-        <v>0.05958508330368143</v>
+        <v>0.06190144331543534</v>
       </c>
       <c r="D11">
-        <v>-0.01132304627070391</v>
+        <v>-0.02055267463821555</v>
       </c>
       <c r="E11">
-        <v>0.007994105613230572</v>
+        <v>-0.02168109256299873</v>
       </c>
       <c r="F11">
-        <v>-0.02277831299530335</v>
+        <v>0.01859332998620812</v>
       </c>
       <c r="G11">
-        <v>-0.1591380680452856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07968600895994742</v>
+      </c>
+      <c r="H11">
+        <v>0.1104572904052267</v>
+      </c>
+      <c r="I11">
+        <v>0.02479848145199976</v>
+      </c>
+      <c r="J11">
+        <v>0.1022719136947073</v>
+      </c>
+      <c r="K11">
+        <v>0.004296941692073672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07402249152305249</v>
+        <v>0.08025523575905821</v>
       </c>
       <c r="C12">
-        <v>0.03603975655713135</v>
+        <v>0.06769577677699443</v>
       </c>
       <c r="D12">
-        <v>-0.004500602493794401</v>
+        <v>-0.03049555859129457</v>
       </c>
       <c r="E12">
-        <v>-0.03194072081098417</v>
+        <v>-0.04590955407228819</v>
       </c>
       <c r="F12">
-        <v>-0.01035996396784134</v>
+        <v>0.02477553778579397</v>
       </c>
       <c r="G12">
-        <v>-0.1452535670184691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.09688363008038557</v>
+      </c>
+      <c r="H12">
+        <v>0.09537724466716738</v>
+      </c>
+      <c r="I12">
+        <v>0.0393767763494285</v>
+      </c>
+      <c r="J12">
+        <v>0.09105633565953286</v>
+      </c>
+      <c r="K12">
+        <v>0.003379374596604384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06378898029723473</v>
+        <v>0.03962673104025589</v>
       </c>
       <c r="C13">
-        <v>0.001202133411305112</v>
+        <v>0.02274680942365262</v>
       </c>
       <c r="D13">
-        <v>-0.009523119579491059</v>
+        <v>-0.01303902588799749</v>
       </c>
       <c r="E13">
-        <v>-0.02472682961572158</v>
+        <v>0.00807309697310136</v>
       </c>
       <c r="F13">
-        <v>-0.04540947447284614</v>
+        <v>-0.02071497208949291</v>
       </c>
       <c r="G13">
-        <v>-0.05029453156206082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04666237448649204</v>
+      </c>
+      <c r="H13">
+        <v>0.04532762266348109</v>
+      </c>
+      <c r="I13">
+        <v>0.007446300738976021</v>
+      </c>
+      <c r="J13">
+        <v>-0.061518820725086</v>
+      </c>
+      <c r="K13">
+        <v>0.02128005488062987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05299030620489715</v>
+        <v>0.04263857188082393</v>
       </c>
       <c r="C14">
-        <v>0.005776205121752862</v>
+        <v>0.01695924465074101</v>
       </c>
       <c r="D14">
-        <v>-0.03376975645102904</v>
+        <v>0.008508195861188277</v>
       </c>
       <c r="E14">
-        <v>-0.02456104824597203</v>
+        <v>-0.01342178490945582</v>
       </c>
       <c r="F14">
-        <v>-0.02452696410881493</v>
+        <v>0.006271637677013053</v>
       </c>
       <c r="G14">
-        <v>-0.06168318728755562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0511241437253403</v>
+      </c>
+      <c r="H14">
+        <v>0.05069418687014923</v>
+      </c>
+      <c r="I14">
+        <v>-0.04315419960100648</v>
+      </c>
+      <c r="J14">
+        <v>-0.0610895293710038</v>
+      </c>
+      <c r="K14">
+        <v>0.02395631538014422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03781452351709268</v>
+        <v>0.02318791376449529</v>
       </c>
       <c r="C15">
-        <v>-0.01186517530012143</v>
+        <v>0.003987327335666179</v>
       </c>
       <c r="D15">
-        <v>-0.01369884216455114</v>
+        <v>-0.00706650585378844</v>
       </c>
       <c r="E15">
-        <v>-0.004886035547081885</v>
+        <v>0.01965221071525708</v>
       </c>
       <c r="F15">
-        <v>-0.02319146107596562</v>
+        <v>-0.03160748419865445</v>
       </c>
       <c r="G15">
-        <v>-0.01818744989417073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01098505582513579</v>
+      </c>
+      <c r="H15">
+        <v>0.0087949648947288</v>
+      </c>
+      <c r="I15">
+        <v>-0.01215022144652176</v>
+      </c>
+      <c r="J15">
+        <v>-0.05997598014003027</v>
+      </c>
+      <c r="K15">
+        <v>0.02653392706472938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.0807507609455219</v>
+        <v>0.08583055113530737</v>
       </c>
       <c r="C16">
-        <v>0.06847107345237712</v>
+        <v>0.0704217995828033</v>
       </c>
       <c r="D16">
-        <v>-0.01887892015051309</v>
+        <v>-0.02967297806841686</v>
       </c>
       <c r="E16">
-        <v>-0.0344515475699529</v>
+        <v>-0.02705131176094687</v>
       </c>
       <c r="F16">
-        <v>-0.04664980416022137</v>
+        <v>0.01548671244019522</v>
       </c>
       <c r="G16">
-        <v>-0.1160807581986651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.110755709287071</v>
+      </c>
+      <c r="H16">
+        <v>0.09155983439362128</v>
+      </c>
+      <c r="I16">
+        <v>0.03279341234774727</v>
+      </c>
+      <c r="J16">
+        <v>0.1096343346539593</v>
+      </c>
+      <c r="K16">
+        <v>0.01131009543453552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05167982881882814</v>
+        <v>0.04976972041848563</v>
       </c>
       <c r="C20">
-        <v>0.02241859751918006</v>
+        <v>0.03178148276353504</v>
       </c>
       <c r="D20">
-        <v>-0.01743545776956634</v>
+        <v>0.008801882488142973</v>
       </c>
       <c r="E20">
-        <v>-0.02213325912988941</v>
+        <v>0.003297559166365126</v>
       </c>
       <c r="F20">
-        <v>-0.01758570157724034</v>
+        <v>-0.01766417124704218</v>
       </c>
       <c r="G20">
-        <v>-0.1060049191582013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04255295368668965</v>
+      </c>
+      <c r="H20">
+        <v>0.05031599097934521</v>
+      </c>
+      <c r="I20">
+        <v>-0.02541839069232585</v>
+      </c>
+      <c r="J20">
+        <v>-0.04406185334908468</v>
+      </c>
+      <c r="K20">
+        <v>0.05394330402941758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02811255240142446</v>
+        <v>0.02811136161905639</v>
       </c>
       <c r="C21">
-        <v>0.0376158360791668</v>
+        <v>0.01689362320046845</v>
       </c>
       <c r="D21">
-        <v>0.00250312881531348</v>
+        <v>0.02920513363686803</v>
       </c>
       <c r="E21">
-        <v>-0.01310106480330124</v>
+        <v>0.01095929293332561</v>
       </c>
       <c r="F21">
-        <v>0.0962971191561252</v>
+        <v>0.009062613380941447</v>
       </c>
       <c r="G21">
-        <v>0.06638431865639401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0381302480164501</v>
+      </c>
+      <c r="H21">
+        <v>0.0687327037485865</v>
+      </c>
+      <c r="I21">
+        <v>0.04846834628399056</v>
+      </c>
+      <c r="J21">
+        <v>-0.06500664708872142</v>
+      </c>
+      <c r="K21">
+        <v>0.1110060693375903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04307291988255849</v>
+        <v>0.03396208349106895</v>
       </c>
       <c r="C22">
-        <v>0.00499516288846161</v>
+        <v>0.001270205036190721</v>
       </c>
       <c r="D22">
-        <v>-0.001841461019218879</v>
+        <v>-0.08496942380421013</v>
       </c>
       <c r="E22">
-        <v>-0.5642057234604493</v>
+        <v>0.401122962511581</v>
       </c>
       <c r="F22">
-        <v>-0.05965144105264559</v>
+        <v>-0.5025113725996085</v>
       </c>
       <c r="G22">
-        <v>0.3148507755509145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1269636288791419</v>
+      </c>
+      <c r="H22">
+        <v>-0.1445763104618375</v>
+      </c>
+      <c r="I22">
+        <v>0.0301782968454445</v>
+      </c>
+      <c r="J22">
+        <v>0.08150929598117686</v>
+      </c>
+      <c r="K22">
+        <v>-0.02320302229116436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0431844576983945</v>
+        <v>0.03416833889156405</v>
       </c>
       <c r="C23">
-        <v>0.005531468479446726</v>
+        <v>0.001745428275767942</v>
       </c>
       <c r="D23">
-        <v>-0.003453522913427725</v>
+        <v>-0.0861857964522061</v>
       </c>
       <c r="E23">
-        <v>-0.5633059833467421</v>
+        <v>0.4026101746845405</v>
       </c>
       <c r="F23">
-        <v>-0.06043356227285917</v>
+        <v>-0.5041241600727598</v>
       </c>
       <c r="G23">
-        <v>0.3157581004269467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1283942684718258</v>
+      </c>
+      <c r="H23">
+        <v>-0.1410606813470842</v>
+      </c>
+      <c r="I23">
+        <v>0.02894584877022931</v>
+      </c>
+      <c r="J23">
+        <v>0.07940221091128448</v>
+      </c>
+      <c r="K23">
+        <v>-0.02662740227210928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08583550494360764</v>
+        <v>0.08794108228891927</v>
       </c>
       <c r="C24">
-        <v>0.04575478341247965</v>
+        <v>0.06258840666694299</v>
       </c>
       <c r="D24">
-        <v>-0.02530942506282046</v>
+        <v>-0.0140465045932173</v>
       </c>
       <c r="E24">
-        <v>-0.03125302421368496</v>
+        <v>-0.02481769003925393</v>
       </c>
       <c r="F24">
-        <v>-0.01523784454908323</v>
+        <v>0.01022653967113635</v>
       </c>
       <c r="G24">
-        <v>-0.1214621029185683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.09683568319198992</v>
+      </c>
+      <c r="H24">
+        <v>0.09061901994327577</v>
+      </c>
+      <c r="I24">
+        <v>0.03491240377780507</v>
+      </c>
+      <c r="J24">
+        <v>0.1142246694309422</v>
+      </c>
+      <c r="K24">
+        <v>-0.009865462875280888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.0767065868489924</v>
+        <v>0.08834557555750401</v>
       </c>
       <c r="C25">
-        <v>0.01837816694590773</v>
+        <v>0.04728988616937696</v>
       </c>
       <c r="D25">
-        <v>-0.02589741316868708</v>
+        <v>-0.02270865978839398</v>
       </c>
       <c r="E25">
-        <v>-0.02399115765800037</v>
+        <v>-0.0534015618413348</v>
       </c>
       <c r="F25">
-        <v>-0.007587003794922146</v>
+        <v>0.02241931932508289</v>
       </c>
       <c r="G25">
-        <v>-0.1141279972762413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.1019053797277982</v>
+      </c>
+      <c r="H25">
+        <v>0.08224312695158668</v>
+      </c>
+      <c r="I25">
+        <v>0.02265773066519841</v>
+      </c>
+      <c r="J25">
+        <v>0.08886297628423384</v>
+      </c>
+      <c r="K25">
+        <v>-0.006249353697560034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05210484503507695</v>
+        <v>0.04185322045115526</v>
       </c>
       <c r="C26">
-        <v>0.02355213699601773</v>
+        <v>-0.0006920125157187334</v>
       </c>
       <c r="D26">
-        <v>-0.03273064899650474</v>
+        <v>0.01673171066134018</v>
       </c>
       <c r="E26">
-        <v>-0.01270505041514432</v>
+        <v>0.01908484382187638</v>
       </c>
       <c r="F26">
-        <v>-0.03600204033288563</v>
+        <v>-0.001868044641470167</v>
       </c>
       <c r="G26">
-        <v>-0.04905280270014168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.04668528930958509</v>
+      </c>
+      <c r="H26">
+        <v>0.02828768058328302</v>
+      </c>
+      <c r="I26">
+        <v>-0.03155503505431476</v>
+      </c>
+      <c r="J26">
+        <v>-0.05237437486605816</v>
+      </c>
+      <c r="K26">
+        <v>0.01995307092595113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06016598060981705</v>
+        <v>0.101755606424205</v>
       </c>
       <c r="C28">
-        <v>-0.2976174740663746</v>
+        <v>-0.3167426207141978</v>
       </c>
       <c r="D28">
-        <v>-0.05414051653993324</v>
+        <v>-0.01150114806764217</v>
       </c>
       <c r="E28">
-        <v>0.03293204047293607</v>
+        <v>-0.02404793681349298</v>
       </c>
       <c r="F28">
-        <v>0.05164839971884383</v>
+        <v>-0.0003831357845271599</v>
       </c>
       <c r="G28">
-        <v>0.01532833057188989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02657355495864714</v>
+      </c>
+      <c r="H28">
+        <v>0.009909634337129075</v>
+      </c>
+      <c r="I28">
+        <v>0.01525062486913679</v>
+      </c>
+      <c r="J28">
+        <v>0.00238974584533494</v>
+      </c>
+      <c r="K28">
+        <v>0.01930314461475852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05759251997211592</v>
+        <v>0.03981000608704131</v>
       </c>
       <c r="C29">
-        <v>0.008147948749449418</v>
+        <v>0.01614474731854383</v>
       </c>
       <c r="D29">
-        <v>-0.02812354430491688</v>
+        <v>-0.003785487201305176</v>
       </c>
       <c r="E29">
-        <v>-0.04443573086835583</v>
+        <v>-0.0281995341353975</v>
       </c>
       <c r="F29">
-        <v>-0.03860414477795739</v>
+        <v>-0.007585799095963157</v>
       </c>
       <c r="G29">
-        <v>-0.04010478949353185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09477233741404939</v>
+      </c>
+      <c r="H29">
+        <v>0.03893633283520919</v>
+      </c>
+      <c r="I29">
+        <v>-0.02543339331951236</v>
+      </c>
+      <c r="J29">
+        <v>-0.06316594024691215</v>
+      </c>
+      <c r="K29">
+        <v>0.03945021476560897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.113433057520201</v>
+        <v>0.1077822266367399</v>
       </c>
       <c r="C30">
-        <v>-0.02290032221985569</v>
+        <v>0.05114528574943653</v>
       </c>
       <c r="D30">
-        <v>-0.08183160569521429</v>
+        <v>-0.04363022070850468</v>
       </c>
       <c r="E30">
-        <v>-0.1997817234867464</v>
+        <v>0.003457721130108512</v>
       </c>
       <c r="F30">
-        <v>0.07219992584567124</v>
+        <v>0.01852240203029407</v>
       </c>
       <c r="G30">
-        <v>-0.1606022822679908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1912276968676172</v>
+      </c>
+      <c r="H30">
+        <v>0.09804055357412998</v>
+      </c>
+      <c r="I30">
+        <v>0.1815609407337113</v>
+      </c>
+      <c r="J30">
+        <v>0.001979525234016944</v>
+      </c>
+      <c r="K30">
+        <v>0.03068746693617219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05778548460617935</v>
+        <v>0.03836089916174239</v>
       </c>
       <c r="C31">
-        <v>0.01720302583565559</v>
+        <v>0.03048006648621452</v>
       </c>
       <c r="D31">
-        <v>0.009735078033745044</v>
+        <v>-0.004427423775472942</v>
       </c>
       <c r="E31">
-        <v>-0.00785774915535843</v>
+        <v>0.004177707000428101</v>
       </c>
       <c r="F31">
-        <v>-0.03394689084524102</v>
+        <v>-0.001474452433994945</v>
       </c>
       <c r="G31">
-        <v>-0.001463260857012408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01997416664947465</v>
+      </c>
+      <c r="H31">
+        <v>0.02100557533509067</v>
+      </c>
+      <c r="I31">
+        <v>-0.04583484079166798</v>
+      </c>
+      <c r="J31">
+        <v>-0.02071158398520184</v>
+      </c>
+      <c r="K31">
+        <v>-0.01018556687705171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03743292825392709</v>
+        <v>0.05379987268751587</v>
       </c>
       <c r="C32">
-        <v>-0.01841662552447441</v>
+        <v>-0.0003583883912555179</v>
       </c>
       <c r="D32">
-        <v>-0.002772211271486609</v>
+        <v>0.02084439267690314</v>
       </c>
       <c r="E32">
-        <v>-0.08388812575069075</v>
+        <v>0.003862731480270251</v>
       </c>
       <c r="F32">
-        <v>-0.1050744109668468</v>
+        <v>0.05928297990235045</v>
       </c>
       <c r="G32">
-        <v>-0.05027540517808871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02255792921799893</v>
+      </c>
+      <c r="H32">
+        <v>0.03784493961595096</v>
+      </c>
+      <c r="I32">
+        <v>0.001095204555087292</v>
+      </c>
+      <c r="J32">
+        <v>-0.009520754118588059</v>
+      </c>
+      <c r="K32">
+        <v>-0.003514568646026134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1115862344190226</v>
+        <v>0.1013032293370111</v>
       </c>
       <c r="C33">
-        <v>0.01550205575412287</v>
+        <v>0.05560258552367876</v>
       </c>
       <c r="D33">
-        <v>0.01094241265447428</v>
+        <v>-0.06968005817616112</v>
       </c>
       <c r="E33">
-        <v>-0.008947403518616616</v>
+        <v>-0.02748839393789985</v>
       </c>
       <c r="F33">
-        <v>-0.05817591056478568</v>
+        <v>0.01531115598753856</v>
       </c>
       <c r="G33">
-        <v>-0.0518510510262992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03773816671601328</v>
+      </c>
+      <c r="H33">
+        <v>0.04978948036402864</v>
+      </c>
+      <c r="I33">
+        <v>-0.006353605969210402</v>
+      </c>
+      <c r="J33">
+        <v>0.02433663501137127</v>
+      </c>
+      <c r="K33">
+        <v>-0.02281510571983337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06680584959852094</v>
+        <v>0.07215957289412847</v>
       </c>
       <c r="C34">
-        <v>0.04654481864323259</v>
+        <v>0.05500375499040464</v>
       </c>
       <c r="D34">
-        <v>-0.0100134400444863</v>
+        <v>-0.0181117506564401</v>
       </c>
       <c r="E34">
-        <v>-0.008861896847476946</v>
+        <v>-0.02817354057581392</v>
       </c>
       <c r="F34">
-        <v>-0.03041935399004207</v>
+        <v>0.0151637663729546</v>
       </c>
       <c r="G34">
-        <v>-0.09304707903288197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.09428283779585413</v>
+      </c>
+      <c r="H34">
+        <v>0.08716749277276374</v>
+      </c>
+      <c r="I34">
+        <v>0.01942133332266319</v>
+      </c>
+      <c r="J34">
+        <v>0.08612213028775507</v>
+      </c>
+      <c r="K34">
+        <v>0.02719803698196142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.0459427133505944</v>
+        <v>0.02045540929691113</v>
       </c>
       <c r="C35">
-        <v>0.007016074380078214</v>
+        <v>0.01492296497338005</v>
       </c>
       <c r="D35">
-        <v>0.01946026230220162</v>
+        <v>-0.005353595369095807</v>
       </c>
       <c r="E35">
-        <v>-0.01178718758236776</v>
+        <v>-0.004511910155417049</v>
       </c>
       <c r="F35">
-        <v>0.03893287960267058</v>
+        <v>0.001551356509733964</v>
       </c>
       <c r="G35">
-        <v>-0.05416822260373655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05756640879482659</v>
+      </c>
+      <c r="H35">
+        <v>0.02493195420366534</v>
+      </c>
+      <c r="I35">
+        <v>-0.006061695855306486</v>
+      </c>
+      <c r="J35">
+        <v>-0.02199961227260488</v>
+      </c>
+      <c r="K35">
+        <v>0.07053287660822877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03746200110432676</v>
+        <v>0.02959834677273704</v>
       </c>
       <c r="C36">
-        <v>0.003782906978652621</v>
+        <v>0.008395191037117018</v>
       </c>
       <c r="D36">
-        <v>-0.02121684179797096</v>
+        <v>-0.00440676777220187</v>
       </c>
       <c r="E36">
-        <v>-0.03418911108869233</v>
+        <v>0.007916982760872425</v>
       </c>
       <c r="F36">
-        <v>-0.01015802018308218</v>
+        <v>-0.004372212956392089</v>
       </c>
       <c r="G36">
-        <v>-0.05383743726788753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.04678861219842163</v>
+      </c>
+      <c r="H36">
+        <v>0.04948381380833287</v>
+      </c>
+      <c r="I36">
+        <v>-0.003609695390773757</v>
+      </c>
+      <c r="J36">
+        <v>-0.03489547991769743</v>
+      </c>
+      <c r="K36">
+        <v>-0.01130678512972217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05503239570409805</v>
+        <v>0.0216758999560503</v>
       </c>
       <c r="C38">
-        <v>0.01731863297130871</v>
+        <v>0.0191352616780096</v>
       </c>
       <c r="D38">
-        <v>-0.006586155466711685</v>
+        <v>-0.01387831916740148</v>
       </c>
       <c r="E38">
-        <v>-0.01125859315697212</v>
+        <v>0.002721323571827295</v>
       </c>
       <c r="F38">
-        <v>-0.006041966795185482</v>
+        <v>-0.02337039552493783</v>
       </c>
       <c r="G38">
-        <v>-0.06028563452905157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01147149159496716</v>
+      </c>
+      <c r="H38">
+        <v>-0.04433072659916094</v>
+      </c>
+      <c r="I38">
+        <v>-0.002660286588936508</v>
+      </c>
+      <c r="J38">
+        <v>-0.03093174511907353</v>
+      </c>
+      <c r="K38">
+        <v>0.003387909319115805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1095804356106796</v>
+        <v>0.1218052576702124</v>
       </c>
       <c r="C39">
-        <v>0.03713245483496087</v>
+        <v>0.08890266617518469</v>
       </c>
       <c r="D39">
-        <v>-0.009584524912699201</v>
+        <v>-0.04612175653768723</v>
       </c>
       <c r="E39">
-        <v>-0.0705770301431735</v>
+        <v>-0.08499342179525593</v>
       </c>
       <c r="F39">
-        <v>-0.009231213411380636</v>
+        <v>0.06788913554771271</v>
       </c>
       <c r="G39">
-        <v>-0.1517390681961414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1348780989478942</v>
+      </c>
+      <c r="H39">
+        <v>0.07644785841338345</v>
+      </c>
+      <c r="I39">
+        <v>0.05419326159483099</v>
+      </c>
+      <c r="J39">
+        <v>0.1671448420139577</v>
+      </c>
+      <c r="K39">
+        <v>0.02700296228522066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05239080035015811</v>
+        <v>0.0195475339376105</v>
       </c>
       <c r="C40">
-        <v>0.02098514588323354</v>
+        <v>0.03357856454687526</v>
       </c>
       <c r="D40">
-        <v>0.01819007855150691</v>
+        <v>0.004463600300354269</v>
       </c>
       <c r="E40">
-        <v>-0.09807504137370159</v>
+        <v>0.04452183961704733</v>
       </c>
       <c r="F40">
-        <v>0.01856712611509725</v>
+        <v>-0.05196372743206288</v>
       </c>
       <c r="G40">
-        <v>-0.2330606685819482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.07134102037544297</v>
+      </c>
+      <c r="H40">
+        <v>0.09378895264903435</v>
+      </c>
+      <c r="I40">
+        <v>0.06572214945867261</v>
+      </c>
+      <c r="J40">
+        <v>-0.07071353063613418</v>
+      </c>
+      <c r="K40">
+        <v>0.0488273436664495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04842260208144209</v>
+        <v>0.03239765472072126</v>
       </c>
       <c r="C41">
-        <v>0.02797162364161786</v>
+        <v>0.01527200134148311</v>
       </c>
       <c r="D41">
-        <v>-0.001299870718267311</v>
+        <v>0.007141461129862412</v>
       </c>
       <c r="E41">
-        <v>0.01253940579017679</v>
+        <v>-0.01121257206697601</v>
       </c>
       <c r="F41">
-        <v>-0.02748167178352888</v>
+        <v>0.00174535569654525</v>
       </c>
       <c r="G41">
-        <v>-0.06348578379283279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01941531236661889</v>
+      </c>
+      <c r="H41">
+        <v>0.01391158173548951</v>
+      </c>
+      <c r="I41">
+        <v>-0.02487124798349686</v>
+      </c>
+      <c r="J41">
+        <v>-0.02480739473482514</v>
+      </c>
+      <c r="K41">
+        <v>0.02489996692375225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07344870371591783</v>
+        <v>0.04752435354138083</v>
       </c>
       <c r="C43">
-        <v>0.02807681472339573</v>
+        <v>0.01888145297284921</v>
       </c>
       <c r="D43">
-        <v>-0.02036850781145255</v>
+        <v>-0.01600983523883809</v>
       </c>
       <c r="E43">
-        <v>-0.02266736341951183</v>
+        <v>-0.002991922458158689</v>
       </c>
       <c r="F43">
-        <v>-0.01960505331205562</v>
+        <v>-0.01049277676459926</v>
       </c>
       <c r="G43">
-        <v>-0.007029509799678826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03408961595349097</v>
+      </c>
+      <c r="H43">
+        <v>8.032233312392391e-05</v>
+      </c>
+      <c r="I43">
+        <v>-0.01990730874916983</v>
+      </c>
+      <c r="J43">
+        <v>-0.01660754364554199</v>
+      </c>
+      <c r="K43">
+        <v>0.006763083364947128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07266658539804545</v>
+        <v>0.1151538818223596</v>
       </c>
       <c r="C44">
-        <v>0.01756797832088128</v>
+        <v>0.09623633884899944</v>
       </c>
       <c r="D44">
-        <v>-0.09648543482054382</v>
+        <v>-0.04063804478771387</v>
       </c>
       <c r="E44">
-        <v>-0.05577595510821298</v>
+        <v>-0.007843104605711007</v>
       </c>
       <c r="F44">
-        <v>-0.05629970000439724</v>
+        <v>-0.1125580798727017</v>
       </c>
       <c r="G44">
-        <v>-0.09984090471722418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2375641277924352</v>
+      </c>
+      <c r="H44">
+        <v>0.1205635622370555</v>
+      </c>
+      <c r="I44">
+        <v>0.1179618332849754</v>
+      </c>
+      <c r="J44">
+        <v>-0.007834852894691338</v>
+      </c>
+      <c r="K44">
+        <v>0.06561791470443384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04975633396667872</v>
+        <v>0.027838729630863</v>
       </c>
       <c r="C46">
-        <v>0.03993918480234512</v>
+        <v>0.01162922674150063</v>
       </c>
       <c r="D46">
-        <v>-0.02739353299636427</v>
+        <v>-0.01330127746213859</v>
       </c>
       <c r="E46">
-        <v>-0.05031499937339817</v>
+        <v>0.005175337225447544</v>
       </c>
       <c r="F46">
-        <v>-0.02203939536136301</v>
+        <v>-0.04476382443797298</v>
       </c>
       <c r="G46">
-        <v>-0.02767758205558496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05691655846135191</v>
+      </c>
+      <c r="H46">
+        <v>0.02404652928858353</v>
+      </c>
+      <c r="I46">
+        <v>-0.01663287730293911</v>
+      </c>
+      <c r="J46">
+        <v>-0.05354039259811859</v>
+      </c>
+      <c r="K46">
+        <v>0.06394387879785685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04840783179478041</v>
+        <v>0.04087511864989306</v>
       </c>
       <c r="C47">
-        <v>-0.0008225345278208032</v>
+        <v>0.01661031992862619</v>
       </c>
       <c r="D47">
-        <v>-0.007729167115581108</v>
+        <v>-0.00137753482272534</v>
       </c>
       <c r="E47">
-        <v>-0.06427317383179909</v>
+        <v>0.009642856215165726</v>
       </c>
       <c r="F47">
-        <v>0.004599822279252637</v>
+        <v>-0.007200990142888568</v>
       </c>
       <c r="G47">
-        <v>0.007044387708351266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04709675324405554</v>
+      </c>
+      <c r="H47">
+        <v>0.02526647691793847</v>
+      </c>
+      <c r="I47">
+        <v>-0.01795104106668986</v>
+      </c>
+      <c r="J47">
+        <v>-0.05134686130989297</v>
+      </c>
+      <c r="K47">
+        <v>0.0204358361544627</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04462909982979728</v>
+        <v>0.0388198333845948</v>
       </c>
       <c r="C48">
-        <v>-0.003686616222722651</v>
+        <v>0.0005733732844672691</v>
       </c>
       <c r="D48">
-        <v>0.005330316386248865</v>
+        <v>-0.01066062864250731</v>
       </c>
       <c r="E48">
-        <v>-0.03798168915906897</v>
+        <v>0.001885319666298636</v>
       </c>
       <c r="F48">
-        <v>-0.007531116817988753</v>
+        <v>-0.0009390586161666449</v>
       </c>
       <c r="G48">
-        <v>-0.04111889220734371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.05220457518701548</v>
+      </c>
+      <c r="H48">
+        <v>0.04037406072738579</v>
+      </c>
+      <c r="I48">
+        <v>-0.01546090959570053</v>
+      </c>
+      <c r="J48">
+        <v>-0.04537375564036886</v>
+      </c>
+      <c r="K48">
+        <v>0.04258724472311969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.235529850430781</v>
+        <v>0.2325887718555692</v>
       </c>
       <c r="C49">
-        <v>0.08287762203491093</v>
+        <v>0.0399502607140528</v>
       </c>
       <c r="D49">
-        <v>-0.02043144310632018</v>
+        <v>0.0553543339785014</v>
       </c>
       <c r="E49">
-        <v>0.08804202498861724</v>
+        <v>-0.05546030759899702</v>
       </c>
       <c r="F49">
-        <v>0.1624991822805316</v>
+        <v>-0.008910958263699921</v>
       </c>
       <c r="G49">
-        <v>0.07321434949531415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2096768331775008</v>
+      </c>
+      <c r="H49">
+        <v>-0.1555076251418389</v>
+      </c>
+      <c r="I49">
+        <v>0.2103236850086321</v>
+      </c>
+      <c r="J49">
+        <v>0.2040397021399185</v>
+      </c>
+      <c r="K49">
+        <v>-0.1050310628474623</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05412512293566546</v>
+        <v>0.04298112362209223</v>
       </c>
       <c r="C50">
-        <v>0.01339030524513554</v>
+        <v>0.02348075792577183</v>
       </c>
       <c r="D50">
-        <v>0.002407976859873634</v>
+        <v>0.005942880497834924</v>
       </c>
       <c r="E50">
-        <v>-0.02479736495722027</v>
+        <v>0.004679069615624625</v>
       </c>
       <c r="F50">
-        <v>-0.06033546034259749</v>
+        <v>0.001168690284468937</v>
       </c>
       <c r="G50">
-        <v>0.008184436721659805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04484037759808327</v>
+      </c>
+      <c r="H50">
+        <v>0.030490836046006</v>
+      </c>
+      <c r="I50">
+        <v>-0.03022957160758043</v>
+      </c>
+      <c r="J50">
+        <v>-0.02159257837668704</v>
+      </c>
+      <c r="K50">
+        <v>-0.02512403252154546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03732363924485637</v>
+        <v>0.01968211166642541</v>
       </c>
       <c r="C51">
-        <v>0.01121493875743114</v>
+        <v>-0.00352218131601975</v>
       </c>
       <c r="D51">
-        <v>-0.01778153221155833</v>
+        <v>-0.0146537829114145</v>
       </c>
       <c r="E51">
-        <v>0.009672715075713796</v>
+        <v>-0.01134352351619118</v>
       </c>
       <c r="F51">
-        <v>-0.001515868043578964</v>
+        <v>-0.01702470502408203</v>
       </c>
       <c r="G51">
-        <v>0.009804614196603145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02564384231131771</v>
+      </c>
+      <c r="H51">
+        <v>-0.005128626495853595</v>
+      </c>
+      <c r="I51">
+        <v>0.01984726365442666</v>
+      </c>
+      <c r="J51">
+        <v>0.02257022671721407</v>
+      </c>
+      <c r="K51">
+        <v>-0.002465672844948993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.07439539834588403</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04151620032653652</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.006566968636557759</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01743449863068139</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01202875917922937</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.0491138383816332</v>
+      </c>
+      <c r="H52">
+        <v>-0.03401337273804517</v>
+      </c>
+      <c r="I52">
+        <v>-0.1263913299953077</v>
+      </c>
+      <c r="J52">
+        <v>0.0316214234084549</v>
+      </c>
+      <c r="K52">
+        <v>-0.01984767994897283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1597577219272115</v>
+        <v>0.1631604137127589</v>
       </c>
       <c r="C53">
-        <v>0.0002062905519443018</v>
+        <v>0.02965613889077098</v>
       </c>
       <c r="D53">
-        <v>-0.00980797007305725</v>
+        <v>-0.007034077618870323</v>
       </c>
       <c r="E53">
-        <v>0.05647536754079306</v>
+        <v>-0.01895795751072248</v>
       </c>
       <c r="F53">
-        <v>-0.2362280647359956</v>
+        <v>-0.01531755818056609</v>
       </c>
       <c r="G53">
-        <v>0.07116790437256029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.005769943087709355</v>
+      </c>
+      <c r="H53">
+        <v>-0.1046348559664175</v>
+      </c>
+      <c r="I53">
+        <v>-0.2793834478361791</v>
+      </c>
+      <c r="J53">
+        <v>-0.006564404012891108</v>
+      </c>
+      <c r="K53">
+        <v>-0.1088505902235556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05502310907641995</v>
+        <v>0.05221606644964436</v>
       </c>
       <c r="C54">
-        <v>0.00564304410286357</v>
+        <v>0.02842493429008454</v>
       </c>
       <c r="D54">
-        <v>-0.02075211657549835</v>
+        <v>0.002091472800159712</v>
       </c>
       <c r="E54">
-        <v>-0.04112949833974679</v>
+        <v>0.01331722148642151</v>
       </c>
       <c r="F54">
-        <v>-0.02420843012321815</v>
+        <v>-0.021846705955042</v>
       </c>
       <c r="G54">
-        <v>-0.06728227371211312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.06922831906251414</v>
+      </c>
+      <c r="H54">
+        <v>0.1203224232248273</v>
+      </c>
+      <c r="I54">
+        <v>-0.03063559269706752</v>
+      </c>
+      <c r="J54">
+        <v>-0.1280683777821701</v>
+      </c>
+      <c r="K54">
+        <v>0.05349401699772236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09313992724760972</v>
+        <v>0.08708448318431578</v>
       </c>
       <c r="C55">
-        <v>0.01572384593220611</v>
+        <v>0.02656276595246132</v>
       </c>
       <c r="D55">
-        <v>-0.01982442766604001</v>
+        <v>-0.05496048380731312</v>
       </c>
       <c r="E55">
-        <v>0.002258227710987384</v>
+        <v>-0.03596809197972097</v>
       </c>
       <c r="F55">
-        <v>-0.1830838355301271</v>
+        <v>0.0001294658665277554</v>
       </c>
       <c r="G55">
-        <v>0.02270447511084372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01640492923050121</v>
+      </c>
+      <c r="H55">
+        <v>-0.02032442636111466</v>
+      </c>
+      <c r="I55">
+        <v>-0.1751284728802595</v>
+      </c>
+      <c r="J55">
+        <v>-0.01262826402445589</v>
+      </c>
+      <c r="K55">
+        <v>-0.03751350654343325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1610382942619578</v>
+        <v>0.1596417139518859</v>
       </c>
       <c r="C56">
-        <v>0.001470329655466718</v>
+        <v>0.04026346932186892</v>
       </c>
       <c r="D56">
-        <v>-0.0001722596215122749</v>
+        <v>-0.01925628671996459</v>
       </c>
       <c r="E56">
-        <v>0.05640833174099929</v>
+        <v>-0.0429846316357913</v>
       </c>
       <c r="F56">
-        <v>-0.2366618566513946</v>
+        <v>-0.009465447441167146</v>
       </c>
       <c r="G56">
-        <v>0.07511362163910897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04175187246470205</v>
+      </c>
+      <c r="H56">
+        <v>-0.07520805635481151</v>
+      </c>
+      <c r="I56">
+        <v>-0.226832486910909</v>
+      </c>
+      <c r="J56">
+        <v>0.005876899228485053</v>
+      </c>
+      <c r="K56">
+        <v>-0.0945256237211403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02271785652128825</v>
+        <v>0.03851741208033482</v>
       </c>
       <c r="C58">
-        <v>0.05975948702575578</v>
+        <v>0.02880873588287186</v>
       </c>
       <c r="D58">
-        <v>0.01262015260733369</v>
+        <v>-0.006352084404850957</v>
       </c>
       <c r="E58">
-        <v>-0.2547308307473237</v>
+        <v>0.0619919221416528</v>
       </c>
       <c r="F58">
-        <v>0.4035805681651028</v>
+        <v>-0.05479446357538865</v>
       </c>
       <c r="G58">
-        <v>-0.1533161174874535</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1068826981536065</v>
+      </c>
+      <c r="H58">
+        <v>-0.001545818375213636</v>
+      </c>
+      <c r="I58">
+        <v>0.1011995429237362</v>
+      </c>
+      <c r="J58">
+        <v>-0.07198681843309516</v>
+      </c>
+      <c r="K58">
+        <v>0.2344067296283556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1519895371381009</v>
+        <v>0.1765607298113604</v>
       </c>
       <c r="C59">
-        <v>-0.3909022800441941</v>
+        <v>-0.3008753951393907</v>
       </c>
       <c r="D59">
-        <v>-0.07105350043080863</v>
+        <v>-0.02995090133097569</v>
       </c>
       <c r="E59">
-        <v>0.07442622587012775</v>
+        <v>-0.06123948356859712</v>
       </c>
       <c r="F59">
-        <v>-0.04502057838260098</v>
+        <v>0.006530530243944472</v>
       </c>
       <c r="G59">
-        <v>-0.02939017441365225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02031225662441418</v>
+      </c>
+      <c r="H59">
+        <v>0.05433331412471312</v>
+      </c>
+      <c r="I59">
+        <v>-0.03750293387681443</v>
+      </c>
+      <c r="J59">
+        <v>0.0521828480417998</v>
+      </c>
+      <c r="K59">
+        <v>-0.02620574738742847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2668425550397881</v>
+        <v>0.2731664048156858</v>
       </c>
       <c r="C60">
-        <v>0.07033863333682307</v>
+        <v>0.1458983776543575</v>
       </c>
       <c r="D60">
-        <v>-0.07384100554610529</v>
+        <v>0.0580181228270231</v>
       </c>
       <c r="E60">
-        <v>0.08269332257646173</v>
+        <v>-0.1255608548819011</v>
       </c>
       <c r="F60">
-        <v>0.09815480114870859</v>
+        <v>-0.04795147940148217</v>
       </c>
       <c r="G60">
-        <v>0.1559248732346423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0635604116618097</v>
+      </c>
+      <c r="H60">
+        <v>-0.2137960720076576</v>
+      </c>
+      <c r="I60">
+        <v>0.2726505871465608</v>
+      </c>
+      <c r="J60">
+        <v>0.08166344307289834</v>
+      </c>
+      <c r="K60">
+        <v>-0.3008902644458827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09584175865966998</v>
+        <v>0.1105387882572199</v>
       </c>
       <c r="C61">
-        <v>0.01871706979814069</v>
+        <v>0.05306364768367015</v>
       </c>
       <c r="D61">
-        <v>-0.001289868370156126</v>
+        <v>-0.03476524916712618</v>
       </c>
       <c r="E61">
-        <v>-0.02171368897331791</v>
+        <v>-0.06917732029395979</v>
       </c>
       <c r="F61">
-        <v>-0.0200846068391153</v>
+        <v>0.02513521667057847</v>
       </c>
       <c r="G61">
-        <v>-0.06432061370970493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1188929582963256</v>
+      </c>
+      <c r="H61">
+        <v>0.09080419289119469</v>
+      </c>
+      <c r="I61">
+        <v>-0.01591027890594489</v>
+      </c>
+      <c r="J61">
+        <v>0.1082811083959694</v>
+      </c>
+      <c r="K61">
+        <v>0.03110475079036972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1439699715687612</v>
+        <v>0.1527451239817093</v>
       </c>
       <c r="C62">
-        <v>0.02865993239666223</v>
+        <v>0.04253463727702112</v>
       </c>
       <c r="D62">
-        <v>0.03626247169090314</v>
+        <v>-0.02247351588350647</v>
       </c>
       <c r="E62">
-        <v>0.1278816066746777</v>
+        <v>-0.03531397039327851</v>
       </c>
       <c r="F62">
-        <v>-0.2495430581215842</v>
+        <v>0.01017150058208097</v>
       </c>
       <c r="G62">
-        <v>0.04005654276327106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02156179955773659</v>
+      </c>
+      <c r="H62">
+        <v>-0.09182586566436352</v>
+      </c>
+      <c r="I62">
+        <v>-0.2347207484823684</v>
+      </c>
+      <c r="J62">
+        <v>-0.02607404392662764</v>
+      </c>
+      <c r="K62">
+        <v>-0.08933437208106684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04325475217744798</v>
+        <v>0.03863179926660279</v>
       </c>
       <c r="C63">
-        <v>0.01670174075481559</v>
+        <v>0.001914916218249108</v>
       </c>
       <c r="D63">
-        <v>0.0100086103718806</v>
+        <v>-0.01196743519505636</v>
       </c>
       <c r="E63">
-        <v>-0.01083129817008968</v>
+        <v>0.0200497819800822</v>
       </c>
       <c r="F63">
-        <v>-0.03161521613574014</v>
+        <v>0.02194937641018021</v>
       </c>
       <c r="G63">
-        <v>-0.03472790973593023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.03593456929425242</v>
+      </c>
+      <c r="H63">
+        <v>0.05579784950518193</v>
+      </c>
+      <c r="I63">
+        <v>-0.003915113679953718</v>
+      </c>
+      <c r="J63">
+        <v>-0.02463408794847711</v>
+      </c>
+      <c r="K63">
+        <v>0.005869769467366294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1084308766367928</v>
+        <v>0.1008027461426711</v>
       </c>
       <c r="C64">
-        <v>0.01209083770438896</v>
+        <v>0.02304335345151368</v>
       </c>
       <c r="D64">
-        <v>-0.03756949695719122</v>
+        <v>0.004506186291393209</v>
       </c>
       <c r="E64">
-        <v>-0.03834832267786332</v>
+        <v>-0.03057959394873586</v>
       </c>
       <c r="F64">
-        <v>0.02204069235046551</v>
+        <v>-0.0409245173129812</v>
       </c>
       <c r="G64">
-        <v>-0.06050560222689846</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06093828132568362</v>
+      </c>
+      <c r="H64">
+        <v>0.04172396564787841</v>
+      </c>
+      <c r="I64">
+        <v>0.07744626285536989</v>
+      </c>
+      <c r="J64">
+        <v>-0.007043436777742504</v>
+      </c>
+      <c r="K64">
+        <v>-0.02060625047247645</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.119913320928014</v>
+        <v>0.1146273846417935</v>
       </c>
       <c r="C65">
-        <v>0.02569781408222278</v>
+        <v>0.004982288460462421</v>
       </c>
       <c r="D65">
-        <v>-0.02232505148472141</v>
+        <v>0.005531352251754378</v>
       </c>
       <c r="E65">
-        <v>-0.05258236145795649</v>
+        <v>0.02795510660643247</v>
       </c>
       <c r="F65">
-        <v>0.1878651517749624</v>
+        <v>0.02018016479456352</v>
       </c>
       <c r="G65">
-        <v>0.2103074952332775</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.03730355985025747</v>
+      </c>
+      <c r="H65">
+        <v>-0.004900245260349792</v>
+      </c>
+      <c r="I65">
+        <v>0.203803860896911</v>
+      </c>
+      <c r="J65">
+        <v>-0.4865996679118454</v>
+      </c>
+      <c r="K65">
+        <v>-0.3338309881924258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607714418844187</v>
+        <v>0.1501042567686008</v>
       </c>
       <c r="C66">
-        <v>0.04601428286002197</v>
+        <v>0.1087373575520808</v>
       </c>
       <c r="D66">
-        <v>0.01651498439416903</v>
+        <v>-0.0456670904283904</v>
       </c>
       <c r="E66">
-        <v>-0.01990818312571117</v>
+        <v>-0.08637731916295389</v>
       </c>
       <c r="F66">
-        <v>-0.03555772349002936</v>
+        <v>0.07348095102677601</v>
       </c>
       <c r="G66">
-        <v>-0.2932389936021987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1332158550386083</v>
+      </c>
+      <c r="H66">
+        <v>0.0654184335277754</v>
+      </c>
+      <c r="I66">
+        <v>0.05568688786858433</v>
+      </c>
+      <c r="J66">
+        <v>0.2269826108508111</v>
+      </c>
+      <c r="K66">
+        <v>-0.02986483215613458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1077234113002026</v>
+        <v>0.07928664002766599</v>
       </c>
       <c r="C67">
-        <v>0.0382915447351399</v>
+        <v>0.05168094152594395</v>
       </c>
       <c r="D67">
-        <v>-0.02206542564184156</v>
+        <v>-0.08100686762784348</v>
       </c>
       <c r="E67">
-        <v>0.0115818892718415</v>
+        <v>-0.02314706630266904</v>
       </c>
       <c r="F67">
-        <v>-0.01655370906073186</v>
+        <v>-0.0241274754543038</v>
       </c>
       <c r="G67">
-        <v>-0.0562273786006767</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.05539008530229943</v>
+      </c>
+      <c r="H67">
+        <v>-0.01547398696073137</v>
+      </c>
+      <c r="I67">
+        <v>-0.009329219816999629</v>
+      </c>
+      <c r="J67">
+        <v>0.03573031770772656</v>
+      </c>
+      <c r="K67">
+        <v>-0.0490806446900099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03876527709099667</v>
+        <v>0.08519644870187792</v>
       </c>
       <c r="C68">
-        <v>-0.2948812366172504</v>
+        <v>-0.2847730418976103</v>
       </c>
       <c r="D68">
-        <v>-0.02764842313536253</v>
+        <v>-0.00354199412247457</v>
       </c>
       <c r="E68">
-        <v>0.01175175926651418</v>
+        <v>-0.01210879016271985</v>
       </c>
       <c r="F68">
-        <v>0.002342689422893213</v>
+        <v>0.02281548185432712</v>
       </c>
       <c r="G68">
-        <v>0.03206068692655278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03649336773183572</v>
+      </c>
+      <c r="H68">
+        <v>0.02850248917764189</v>
+      </c>
+      <c r="I68">
+        <v>0.005449558622237718</v>
+      </c>
+      <c r="J68">
+        <v>-0.004590822945922523</v>
+      </c>
+      <c r="K68">
+        <v>-0.01981721632916934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04811756154961336</v>
+        <v>0.0376094654343983</v>
       </c>
       <c r="C69">
-        <v>0.01287815019990027</v>
+        <v>0.0045985040651477</v>
       </c>
       <c r="D69">
-        <v>0.005552686417735582</v>
+        <v>-0.02584641996744062</v>
       </c>
       <c r="E69">
-        <v>-0.00221698906631427</v>
+        <v>-0.008080213907059163</v>
       </c>
       <c r="F69">
-        <v>-0.002084795292679891</v>
+        <v>-0.007945498121516499</v>
       </c>
       <c r="G69">
-        <v>-0.01757622921752783</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.020330823165764</v>
+      </c>
+      <c r="H69">
+        <v>-0.001478395348977497</v>
+      </c>
+      <c r="I69">
+        <v>-0.0126108856101661</v>
+      </c>
+      <c r="J69">
+        <v>-0.02326651747665877</v>
+      </c>
+      <c r="K69">
+        <v>-0.01743296620042566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07462738499322885</v>
+        <v>0.04604490035206698</v>
       </c>
       <c r="C70">
-        <v>0.006635397568522603</v>
+        <v>0.001523157373427081</v>
       </c>
       <c r="D70">
-        <v>-0.03458126912524595</v>
+        <v>-0.0323731982397154</v>
       </c>
       <c r="E70">
-        <v>0.02806814627898082</v>
+        <v>-0.0463132662098302</v>
       </c>
       <c r="F70">
-        <v>0.07277795469261808</v>
+        <v>-0.009258927911983508</v>
       </c>
       <c r="G70">
-        <v>-0.00309785517109946</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01607148856745778</v>
+      </c>
+      <c r="H70">
+        <v>0.01242758501778487</v>
+      </c>
+      <c r="I70">
+        <v>0.0153609803867898</v>
+      </c>
+      <c r="J70">
+        <v>-0.1778052517419139</v>
+      </c>
+      <c r="K70">
+        <v>0.1475826490666448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04888942788811365</v>
+        <v>0.1004271815468495</v>
       </c>
       <c r="C71">
-        <v>-0.2984929018419862</v>
+        <v>-0.2991077265792148</v>
       </c>
       <c r="D71">
-        <v>-0.04499397116218562</v>
+        <v>-0.006486337619588811</v>
       </c>
       <c r="E71">
-        <v>0.008842819679698941</v>
+        <v>-0.02680745667686051</v>
       </c>
       <c r="F71">
-        <v>0.004293945078056981</v>
+        <v>-0.004881729491642732</v>
       </c>
       <c r="G71">
-        <v>-0.002673466546316856</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04639505227017121</v>
+      </c>
+      <c r="H71">
+        <v>0.01975721223161244</v>
+      </c>
+      <c r="I71">
+        <v>0.008601177553262968</v>
+      </c>
+      <c r="J71">
+        <v>0.02209203386228392</v>
+      </c>
+      <c r="K71">
+        <v>-0.0348590484264229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1446223040432152</v>
+        <v>0.145751784230518</v>
       </c>
       <c r="C72">
-        <v>-0.04484063863641358</v>
+        <v>-0.003127317934230729</v>
       </c>
       <c r="D72">
-        <v>0.2368926003703274</v>
+        <v>-0.01467971456566633</v>
       </c>
       <c r="E72">
-        <v>0.02843574496019708</v>
+        <v>0.06648722817892604</v>
       </c>
       <c r="F72">
-        <v>-0.02444042519332184</v>
+        <v>0.07563254755848806</v>
       </c>
       <c r="G72">
-        <v>-0.05195730149737136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.001949566034384308</v>
+      </c>
+      <c r="H72">
+        <v>-0.02219754905951374</v>
+      </c>
+      <c r="I72">
+        <v>-0.03710139159721804</v>
+      </c>
+      <c r="J72">
+        <v>-0.06170737001883108</v>
+      </c>
+      <c r="K72">
+        <v>-0.1649645478237993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2844042651861226</v>
+        <v>0.2435264841838308</v>
       </c>
       <c r="C73">
-        <v>0.1546263591716197</v>
+        <v>0.09466936319628853</v>
       </c>
       <c r="D73">
-        <v>-0.05951991682865348</v>
+        <v>-0.03045383495130177</v>
       </c>
       <c r="E73">
-        <v>0.15913534014544</v>
+        <v>-0.157798049877331</v>
       </c>
       <c r="F73">
-        <v>0.3264750289488318</v>
+        <v>-0.0399047201360557</v>
       </c>
       <c r="G73">
-        <v>0.2348504810284566</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3102714860358469</v>
+      </c>
+      <c r="H73">
+        <v>-0.2695397082403001</v>
+      </c>
+      <c r="I73">
+        <v>0.2933268972249934</v>
+      </c>
+      <c r="J73">
+        <v>0.1306822716725641</v>
+      </c>
+      <c r="K73">
+        <v>0.1181002886375063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09971542458636383</v>
+        <v>0.1145519704400514</v>
       </c>
       <c r="C74">
-        <v>0.03589834568617908</v>
+        <v>0.05042730627454905</v>
       </c>
       <c r="D74">
-        <v>-0.0006730021169435727</v>
+        <v>-0.02922840285084739</v>
       </c>
       <c r="E74">
-        <v>0.01353027835356536</v>
+        <v>-0.01003388659724404</v>
       </c>
       <c r="F74">
-        <v>-0.09937638964155901</v>
+        <v>-0.002280882235310731</v>
       </c>
       <c r="G74">
-        <v>0.03973430898840144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05798496703174702</v>
+      </c>
+      <c r="H74">
+        <v>-0.09039777899304685</v>
+      </c>
+      <c r="I74">
+        <v>-0.1263165608238262</v>
+      </c>
+      <c r="J74">
+        <v>-0.008314201942087256</v>
+      </c>
+      <c r="K74">
+        <v>-0.0329574354235934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09402634069794802</v>
+        <v>0.1108967220889027</v>
       </c>
       <c r="C75">
-        <v>0.01954575423317218</v>
+        <v>0.04078696587986498</v>
       </c>
       <c r="D75">
-        <v>0.02590139390216683</v>
+        <v>-0.01180209222163335</v>
       </c>
       <c r="E75">
-        <v>0.03295040644203919</v>
+        <v>0.003076892201339785</v>
       </c>
       <c r="F75">
-        <v>-0.1151276366246504</v>
+        <v>0.008830913031816811</v>
       </c>
       <c r="G75">
-        <v>0.06715361315856773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.008111749898344015</v>
+      </c>
+      <c r="H75">
+        <v>-0.04316029666823421</v>
+      </c>
+      <c r="I75">
+        <v>-0.1628635867248616</v>
+      </c>
+      <c r="J75">
+        <v>-0.01106043674041032</v>
+      </c>
+      <c r="K75">
+        <v>-0.01804885198667137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1365607554447774</v>
+        <v>0.05529567434869929</v>
       </c>
       <c r="C76">
-        <v>0.03293219625076369</v>
+        <v>0.01494310392159021</v>
       </c>
       <c r="D76">
-        <v>-0.01510015643677647</v>
+        <v>-0.03349692730728417</v>
       </c>
       <c r="E76">
-        <v>-0.01408713947519646</v>
+        <v>-0.01633132627897415</v>
       </c>
       <c r="F76">
-        <v>-0.2364149888101711</v>
+        <v>-0.02660369917320925</v>
       </c>
       <c r="G76">
-        <v>0.109959074905195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03784746943033781</v>
+      </c>
+      <c r="H76">
+        <v>-0.04493390564055029</v>
+      </c>
+      <c r="I76">
+        <v>-0.1406048219318585</v>
+      </c>
+      <c r="J76">
+        <v>-0.01514308903406497</v>
+      </c>
+      <c r="K76">
+        <v>-0.02816042437812538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08983166874742081</v>
+        <v>0.07440695205291135</v>
       </c>
       <c r="C77">
-        <v>-0.01286496604809017</v>
+        <v>0.03826239488468837</v>
       </c>
       <c r="D77">
-        <v>-0.04766919438384448</v>
+        <v>0.02423351584523502</v>
       </c>
       <c r="E77">
-        <v>-0.0556181479380766</v>
+        <v>-0.01845998030255675</v>
       </c>
       <c r="F77">
-        <v>0.1868916818949052</v>
+        <v>-0.03590409905347144</v>
       </c>
       <c r="G77">
-        <v>-0.2214415182344734</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09192240415685786</v>
+      </c>
+      <c r="H77">
+        <v>0.2120467327925187</v>
+      </c>
+      <c r="I77">
+        <v>0.1614004297511645</v>
+      </c>
+      <c r="J77">
+        <v>-0.0980128734350308</v>
+      </c>
+      <c r="K77">
+        <v>-0.1685530773050308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2196313384540743</v>
+        <v>0.1539437959381016</v>
       </c>
       <c r="C78">
-        <v>0.0568398246521317</v>
+        <v>0.08118241827643041</v>
       </c>
       <c r="D78">
-        <v>-0.07256552880658709</v>
+        <v>-0.1187844264073772</v>
       </c>
       <c r="E78">
-        <v>-0.1921758341869579</v>
+        <v>0.2175204477524283</v>
       </c>
       <c r="F78">
-        <v>0.003789209421138215</v>
+        <v>-0.1364280292310554</v>
       </c>
       <c r="G78">
-        <v>-0.1477485135916928</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6293438510441476</v>
+      </c>
+      <c r="H78">
+        <v>0.6102934927639296</v>
+      </c>
+      <c r="I78">
+        <v>-0.1606760473182543</v>
+      </c>
+      <c r="J78">
+        <v>0.110695223866254</v>
+      </c>
+      <c r="K78">
+        <v>-0.04562818875599278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1367253816807829</v>
+        <v>0.1376130328514042</v>
       </c>
       <c r="C79">
-        <v>0.01539701850628336</v>
+        <v>0.04264293371519125</v>
       </c>
       <c r="D79">
-        <v>0.007080340294042446</v>
+        <v>0.002766046807537567</v>
       </c>
       <c r="E79">
-        <v>0.02140403307403285</v>
+        <v>-0.01222404421985296</v>
       </c>
       <c r="F79">
-        <v>-0.1706615793728264</v>
+        <v>0.001080421806495423</v>
       </c>
       <c r="G79">
-        <v>0.02340838679457498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.0306849425932374</v>
+      </c>
+      <c r="H79">
+        <v>-0.05565303181053633</v>
+      </c>
+      <c r="I79">
+        <v>-0.1694352968893479</v>
+      </c>
+      <c r="J79">
+        <v>-0.01936254707049894</v>
+      </c>
+      <c r="K79">
+        <v>-0.08752108377395787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03369999554406064</v>
+        <v>0.06370690316571348</v>
       </c>
       <c r="C80">
-        <v>0.009163556678472682</v>
+        <v>0.04151035983517867</v>
       </c>
       <c r="D80">
-        <v>-0.01934099258464285</v>
+        <v>-0.03673732584986725</v>
       </c>
       <c r="E80">
-        <v>0.0285702757831333</v>
+        <v>-0.05292349500554996</v>
       </c>
       <c r="F80">
-        <v>0.01081605258553766</v>
+        <v>0.01449712156750308</v>
       </c>
       <c r="G80">
-        <v>-0.06085563946444299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01597001960644218</v>
+      </c>
+      <c r="H80">
+        <v>0.08277381670320884</v>
+      </c>
+      <c r="I80">
+        <v>-0.05106507751510299</v>
+      </c>
+      <c r="J80">
+        <v>-0.02920757726089501</v>
+      </c>
+      <c r="K80">
+        <v>0.1767792386633802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1116671580658084</v>
+        <v>0.1328792198262674</v>
       </c>
       <c r="C81">
-        <v>0.008291733440005267</v>
+        <v>0.04746609041043488</v>
       </c>
       <c r="D81">
-        <v>-0.009265436242273665</v>
+        <v>-0.009802003991106652</v>
       </c>
       <c r="E81">
-        <v>0.01228908776060659</v>
+        <v>-0.01078000904702556</v>
       </c>
       <c r="F81">
-        <v>-0.1326568703953164</v>
+        <v>-0.01045579573461483</v>
       </c>
       <c r="G81">
-        <v>0.04783837205263416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.04887572965558291</v>
+      </c>
+      <c r="H81">
+        <v>-0.0324650476861881</v>
+      </c>
+      <c r="I81">
+        <v>-0.1535859579564669</v>
+      </c>
+      <c r="J81">
+        <v>0.006929530084474294</v>
+      </c>
+      <c r="K81">
+        <v>-0.03155695354831043</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1108739579444556</v>
+        <v>0.1463137146191934</v>
       </c>
       <c r="C82">
-        <v>0.02645592071131733</v>
+        <v>0.03934109458602843</v>
       </c>
       <c r="D82">
-        <v>-0.04589848421518367</v>
+        <v>-0.01314569300058147</v>
       </c>
       <c r="E82">
-        <v>0.04880008211778827</v>
+        <v>-0.05999065661095612</v>
       </c>
       <c r="F82">
-        <v>-0.2259761073699764</v>
+        <v>0.001498167476609556</v>
       </c>
       <c r="G82">
-        <v>0.01398180069142262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.04666154666084969</v>
+      </c>
+      <c r="H82">
+        <v>-0.1190797574674</v>
+      </c>
+      <c r="I82">
+        <v>-0.2688731395328325</v>
+      </c>
+      <c r="J82">
+        <v>0.05379005269213848</v>
+      </c>
+      <c r="K82">
+        <v>0.006856954069545231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1056291749014357</v>
+        <v>0.09369305671908594</v>
       </c>
       <c r="C83">
-        <v>0.05204108033018272</v>
+        <v>0.09263681302869985</v>
       </c>
       <c r="D83">
-        <v>-0.06279042260918453</v>
+        <v>0.0148300708158716</v>
       </c>
       <c r="E83">
-        <v>0.01768353533790741</v>
+        <v>0.001116375539838156</v>
       </c>
       <c r="F83">
-        <v>0.08193647305283951</v>
+        <v>-0.01040405714243708</v>
       </c>
       <c r="G83">
-        <v>-0.08934633301643725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05523644583490242</v>
+      </c>
+      <c r="H83">
+        <v>0.07772505346764674</v>
+      </c>
+      <c r="I83">
+        <v>-0.001242212160236667</v>
+      </c>
+      <c r="J83">
+        <v>-0.1637952978767941</v>
+      </c>
+      <c r="K83">
+        <v>0.1190736118853039</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0508787383654993</v>
+        <v>0.05989796729118711</v>
       </c>
       <c r="C84">
-        <v>0.01639529750158709</v>
+        <v>-0.004860236385497016</v>
       </c>
       <c r="D84">
-        <v>0.05523656951266163</v>
+        <v>0.0314423393094249</v>
       </c>
       <c r="E84">
-        <v>-0.03103408718381682</v>
+        <v>-0.02860440695348212</v>
       </c>
       <c r="F84">
-        <v>-0.01639785453548222</v>
+        <v>0.01134199055394236</v>
       </c>
       <c r="G84">
-        <v>0.03314049200680646</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.01545237762988689</v>
+      </c>
+      <c r="H84">
+        <v>-0.003866336802471358</v>
+      </c>
+      <c r="I84">
+        <v>0.1538517981417846</v>
+      </c>
+      <c r="J84">
+        <v>0.2909748858888449</v>
+      </c>
+      <c r="K84">
+        <v>0.2027049573871793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1003704839490934</v>
+        <v>0.1188835404096228</v>
       </c>
       <c r="C85">
-        <v>0.02390449605913255</v>
+        <v>0.03366048651061922</v>
       </c>
       <c r="D85">
-        <v>-0.02216830087220596</v>
+        <v>-0.00604330127101884</v>
       </c>
       <c r="E85">
-        <v>0.02389354859292753</v>
+        <v>-0.03444106579899427</v>
       </c>
       <c r="F85">
-        <v>-0.2047235919538135</v>
+        <v>-0.0195619509528186</v>
       </c>
       <c r="G85">
-        <v>0.03404562824800333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02943475812640838</v>
+      </c>
+      <c r="H85">
+        <v>-0.0392263080088056</v>
+      </c>
+      <c r="I85">
+        <v>-0.1995463548629252</v>
+      </c>
+      <c r="J85">
+        <v>-0.004589756198827652</v>
+      </c>
+      <c r="K85">
+        <v>-0.07840421296996578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06841981275650436</v>
+        <v>0.1352786753674618</v>
       </c>
       <c r="C86">
-        <v>0.02053657046678535</v>
+        <v>0.04687118078326681</v>
       </c>
       <c r="D86">
-        <v>-0.05729058023459741</v>
+        <v>0.9333567089537755</v>
       </c>
       <c r="E86">
-        <v>-0.05344278424660601</v>
+        <v>0.2114901148449621</v>
       </c>
       <c r="F86">
-        <v>0.002741620352313578</v>
+        <v>0.02490415231862226</v>
       </c>
       <c r="G86">
-        <v>-0.0966039295380146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0217796573696802</v>
+      </c>
+      <c r="H86">
+        <v>0.06537072163675145</v>
+      </c>
+      <c r="I86">
+        <v>-0.06241891345320176</v>
+      </c>
+      <c r="J86">
+        <v>0.05111685185068154</v>
+      </c>
+      <c r="K86">
+        <v>0.05107064649199414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1045442023633086</v>
+        <v>0.1181103527955939</v>
       </c>
       <c r="C87">
-        <v>0.05289954189590199</v>
+        <v>0.092948763226919</v>
       </c>
       <c r="D87">
-        <v>-0.02459916029678615</v>
+        <v>0.0007773266552056299</v>
       </c>
       <c r="E87">
-        <v>-0.06201271142346568</v>
+        <v>-0.01487143823159426</v>
       </c>
       <c r="F87">
-        <v>0.0292654826717011</v>
+        <v>-0.02524811240244394</v>
       </c>
       <c r="G87">
-        <v>-0.1052161682666743</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08342479409126738</v>
+      </c>
+      <c r="H87">
+        <v>0.1177103275611905</v>
+      </c>
+      <c r="I87">
+        <v>0.07445010908067379</v>
+      </c>
+      <c r="J87">
+        <v>-0.1609871130126131</v>
+      </c>
+      <c r="K87">
+        <v>-0.001958657541007021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06930129252795726</v>
+        <v>0.05797131416281319</v>
       </c>
       <c r="C88">
-        <v>0.04040855356501488</v>
+        <v>0.03972900669175326</v>
       </c>
       <c r="D88">
-        <v>-0.0196441845827604</v>
+        <v>-0.01695944912093229</v>
       </c>
       <c r="E88">
-        <v>-0.01091032762856296</v>
+        <v>-0.04539999477711989</v>
       </c>
       <c r="F88">
-        <v>-0.008027932071952982</v>
+        <v>0.01968980749980388</v>
       </c>
       <c r="G88">
-        <v>-0.06072358926289503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02535613239964525</v>
+      </c>
+      <c r="H88">
+        <v>0.01920609418740624</v>
+      </c>
+      <c r="I88">
+        <v>-0.004320370203646474</v>
+      </c>
+      <c r="J88">
+        <v>-0.00707631271310011</v>
+      </c>
+      <c r="K88">
+        <v>0.0130462069826496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09149748511404236</v>
+        <v>0.1520951802014568</v>
       </c>
       <c r="C89">
-        <v>-0.3750511052739176</v>
+        <v>-0.3714373312033716</v>
       </c>
       <c r="D89">
-        <v>-0.1045129722746567</v>
+        <v>-0.0026565002626246</v>
       </c>
       <c r="E89">
-        <v>-0.01543050550421333</v>
+        <v>-0.01016597301173599</v>
       </c>
       <c r="F89">
-        <v>0.05322769786342372</v>
+        <v>-0.06805463451135003</v>
       </c>
       <c r="G89">
-        <v>-0.01262194343292039</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.002063870983819477</v>
+      </c>
+      <c r="H89">
+        <v>0.048246418703573</v>
+      </c>
+      <c r="I89">
+        <v>0.0257520278993628</v>
+      </c>
+      <c r="J89">
+        <v>0.01841136614072473</v>
+      </c>
+      <c r="K89">
+        <v>0.07973071705445782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07258094725780867</v>
+        <v>0.1144188188609714</v>
       </c>
       <c r="C90">
-        <v>-0.2934775972626759</v>
+        <v>-0.2867973313421192</v>
       </c>
       <c r="D90">
-        <v>-0.04696948373757889</v>
+        <v>0.005645101738885555</v>
       </c>
       <c r="E90">
-        <v>-0.04279121148893747</v>
+        <v>-0.03077510459236115</v>
       </c>
       <c r="F90">
-        <v>0.04632457357697362</v>
+        <v>-0.005779477642512239</v>
       </c>
       <c r="G90">
-        <v>-0.04850422792903973</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04521849325704334</v>
+      </c>
+      <c r="H90">
+        <v>0.03640250590238309</v>
+      </c>
+      <c r="I90">
+        <v>0.05167045411000445</v>
+      </c>
+      <c r="J90">
+        <v>0.02706311199364705</v>
+      </c>
+      <c r="K90">
+        <v>-0.006551300099420085</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08263649583336774</v>
+        <v>0.08365847360421208</v>
       </c>
       <c r="C91">
-        <v>0.01923486106024896</v>
+        <v>0.03662182685722983</v>
       </c>
       <c r="D91">
-        <v>-0.009346336099535155</v>
+        <v>0.01178435470541889</v>
       </c>
       <c r="E91">
-        <v>0.01620144070728271</v>
+        <v>-0.01382419054620292</v>
       </c>
       <c r="F91">
-        <v>-0.08076774563024768</v>
+        <v>-0.01572999659902799</v>
       </c>
       <c r="G91">
-        <v>0.07020664012576341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01265370705404743</v>
+      </c>
+      <c r="H91">
+        <v>-0.04943434358881173</v>
+      </c>
+      <c r="I91">
+        <v>-0.1182617176886042</v>
+      </c>
+      <c r="J91">
+        <v>-0.01199568914781642</v>
+      </c>
+      <c r="K91">
+        <v>-0.03190176159400328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06781972074317288</v>
+        <v>0.124621901606711</v>
       </c>
       <c r="C92">
-        <v>-0.3461426952105075</v>
+        <v>-0.3384729134778515</v>
       </c>
       <c r="D92">
-        <v>-0.07032185419363848</v>
+        <v>-0.004182626094470797</v>
       </c>
       <c r="E92">
-        <v>-0.01897324318715729</v>
+        <v>0.002305020296855101</v>
       </c>
       <c r="F92">
-        <v>0.03391802360517408</v>
+        <v>-0.03858351539377053</v>
       </c>
       <c r="G92">
-        <v>0.03241642181872633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0171991807561355</v>
+      </c>
+      <c r="H92">
+        <v>0.07152225827367077</v>
+      </c>
+      <c r="I92">
+        <v>-0.02523443096446163</v>
+      </c>
+      <c r="J92">
+        <v>0.03743577499332852</v>
+      </c>
+      <c r="K92">
+        <v>0.00451949093515952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08401172168382513</v>
+        <v>0.1202970797817333</v>
       </c>
       <c r="C93">
-        <v>-0.2989031449027099</v>
+        <v>-0.317676474311753</v>
       </c>
       <c r="D93">
-        <v>-0.0405864202476181</v>
+        <v>0.02347330640251384</v>
       </c>
       <c r="E93">
-        <v>-0.01098170919040473</v>
+        <v>-0.04990020863330977</v>
       </c>
       <c r="F93">
-        <v>0.02163679287853908</v>
+        <v>0.004900478122439347</v>
       </c>
       <c r="G93">
-        <v>0.01827958276267691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03709159110991285</v>
+      </c>
+      <c r="H93">
+        <v>0.001500611311193343</v>
+      </c>
+      <c r="I93">
+        <v>0.02203285834195818</v>
+      </c>
+      <c r="J93">
+        <v>0.008373704723492487</v>
+      </c>
+      <c r="K93">
+        <v>-0.007154922714569382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09387700038147399</v>
+        <v>0.126946159600281</v>
       </c>
       <c r="C94">
-        <v>0.04874555614576482</v>
+        <v>0.05252774124986329</v>
       </c>
       <c r="D94">
-        <v>0.009812658457074077</v>
+        <v>-0.03173719376329265</v>
       </c>
       <c r="E94">
-        <v>0.002873134724415116</v>
+        <v>-0.006714926524622542</v>
       </c>
       <c r="F94">
-        <v>-0.1291942545589291</v>
+        <v>-0.01986638891043008</v>
       </c>
       <c r="G94">
-        <v>0.07501268167059448</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01113656702197452</v>
+      </c>
+      <c r="H94">
+        <v>-0.08329706064628001</v>
+      </c>
+      <c r="I94">
+        <v>-0.1323977493145807</v>
+      </c>
+      <c r="J94">
+        <v>0.03012657990643598</v>
+      </c>
+      <c r="K94">
+        <v>-0.02762234309724249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.13637967604196</v>
+        <v>0.1208093588898932</v>
       </c>
       <c r="C95">
-        <v>0.06945154836199496</v>
+        <v>0.05340578755306966</v>
       </c>
       <c r="D95">
-        <v>-0.06234618599045751</v>
+        <v>-0.0209539151392314</v>
       </c>
       <c r="E95">
-        <v>-0.03918887615498857</v>
+        <v>-0.01339704169005634</v>
       </c>
       <c r="F95">
-        <v>0.02939795692710042</v>
+        <v>-0.06750085738867238</v>
       </c>
       <c r="G95">
-        <v>-0.1095001797182676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02060366682800563</v>
+      </c>
+      <c r="H95">
+        <v>0.118947817372508</v>
+      </c>
+      <c r="I95">
+        <v>0.1740839043365625</v>
+      </c>
+      <c r="J95">
+        <v>-0.03831105386604837</v>
+      </c>
+      <c r="K95">
+        <v>0.1624884066956178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.009880359985154758</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0008745980016781284</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001001652118084507</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005951510611846905</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.003562196247738526</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0001391529625891611</v>
+      </c>
+      <c r="H96">
+        <v>0.01613793368023493</v>
+      </c>
+      <c r="I96">
+        <v>0.01020638331836948</v>
+      </c>
+      <c r="J96">
+        <v>-0.01647933525911962</v>
+      </c>
+      <c r="K96">
+        <v>-0.01864769908392009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1928298590397583</v>
+        <v>0.1826999124347134</v>
       </c>
       <c r="C97">
-        <v>-0.1267126520355159</v>
+        <v>-0.01284817400443124</v>
       </c>
       <c r="D97">
-        <v>0.9063365430362266</v>
+        <v>-0.1880381739258981</v>
       </c>
       <c r="E97">
-        <v>-0.04769681647319917</v>
+        <v>0.6819472957213447</v>
       </c>
       <c r="F97">
-        <v>0.06537502965879896</v>
+        <v>0.6269843705506468</v>
       </c>
       <c r="G97">
-        <v>-0.04267918742873662</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04256801600314076</v>
+      </c>
+      <c r="H97">
+        <v>-0.1156427492237647</v>
+      </c>
+      <c r="I97">
+        <v>0.08467924318943114</v>
+      </c>
+      <c r="J97">
+        <v>0.05288385743904895</v>
+      </c>
+      <c r="K97">
+        <v>0.03706676335249937</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3205052255679003</v>
+        <v>0.2687093670463586</v>
       </c>
       <c r="C98">
-        <v>0.06284484010766588</v>
+        <v>0.04575467077243789</v>
       </c>
       <c r="D98">
-        <v>-0.04778887663537209</v>
+        <v>0.004985197723990845</v>
       </c>
       <c r="E98">
-        <v>0.2467976996226021</v>
+        <v>-0.01366623435145143</v>
       </c>
       <c r="F98">
-        <v>0.2354428112334251</v>
+        <v>-0.0468001015291931</v>
       </c>
       <c r="G98">
-        <v>0.2641442618463339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2680007025455242</v>
+      </c>
+      <c r="H98">
+        <v>-0.2442043383603079</v>
+      </c>
+      <c r="I98">
+        <v>-0.02397136258641537</v>
+      </c>
+      <c r="J98">
+        <v>-0.3136040004559765</v>
+      </c>
+      <c r="K98">
+        <v>0.5406125309885558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08764553836592004</v>
+        <v>0.05472681309974125</v>
       </c>
       <c r="C99">
-        <v>0.02290331821113185</v>
+        <v>0.003541407635495787</v>
       </c>
       <c r="D99">
-        <v>-0.008342913417758934</v>
+        <v>-0.03776265485990288</v>
       </c>
       <c r="E99">
-        <v>0.01193661795597787</v>
+        <v>0.001138468830276263</v>
       </c>
       <c r="F99">
-        <v>0.0004431498395553848</v>
+        <v>-0.02502225524514273</v>
       </c>
       <c r="G99">
-        <v>-0.01401394165328584</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01149513330810771</v>
+      </c>
+      <c r="H99">
+        <v>0.004049033769937998</v>
+      </c>
+      <c r="I99">
+        <v>-0.01254378912284872</v>
+      </c>
+      <c r="J99">
+        <v>0.007823452542616082</v>
+      </c>
+      <c r="K99">
+        <v>-0.007631061293385791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01644257480528456</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.02588912748212659</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1082257745562625</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.0300025582977003</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04748562215151363</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.07026362858417542</v>
+      </c>
+      <c r="H100">
+        <v>-0.01666916784204068</v>
+      </c>
+      <c r="I100">
+        <v>-0.1088302395953383</v>
+      </c>
+      <c r="J100">
+        <v>-0.07316832766809764</v>
+      </c>
+      <c r="K100">
+        <v>0.2422066139977265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05785582212309089</v>
+        <v>0.03964873150339584</v>
       </c>
       <c r="C101">
-        <v>0.007718270134836689</v>
+        <v>0.01639533420535448</v>
       </c>
       <c r="D101">
-        <v>-0.02826913371437011</v>
+        <v>-0.00441539407161632</v>
       </c>
       <c r="E101">
-        <v>-0.04263513144036366</v>
+        <v>-0.02904291419519101</v>
       </c>
       <c r="F101">
-        <v>-0.03767794676993443</v>
+        <v>-0.006997868771277116</v>
       </c>
       <c r="G101">
-        <v>-0.04007648242506003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09173510585371207</v>
+      </c>
+      <c r="H101">
+        <v>0.03877323249097091</v>
+      </c>
+      <c r="I101">
+        <v>-0.02773613738255956</v>
+      </c>
+      <c r="J101">
+        <v>-0.06112051612528513</v>
+      </c>
+      <c r="K101">
+        <v>0.04213336627051967</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
